--- a/クリックポスト発送情報/20200723100110/英子日本发货表格7.22.xlsx
+++ b/クリックポスト発送情報/20200723100110/英子日本发货表格7.22.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>序号</t>
   </si>
@@ -250,6 +250,59 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628534008885</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628534008874</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628534008863</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628534008852</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628534008841</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628534008830
+628534008826</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628534008815</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628534008804</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628534008793</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628534008782</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628534008771</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628534008760</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628534008756</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -258,7 +311,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -399,7 +452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -493,12 +546,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -508,11 +567,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1462,7 +1521,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4:I4"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1815,7 +1874,7 @@
       <c r="FY1" s="5"/>
     </row>
     <row r="2" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="13"/>
@@ -1837,9 +1896,12 @@
       <c r="I2" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="K2" s="39" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A3" s="34"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
         <v>18</v>
@@ -1859,9 +1921,12 @@
       <c r="I3" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="K3" s="39" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A4" s="34"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
         <v>19</v>
@@ -1880,6 +1945,9 @@
       </c>
       <c r="I4" s="12" t="s">
         <v>17</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1">
@@ -1905,6 +1973,9 @@
       <c r="I5" s="12" t="s">
         <v>25</v>
       </c>
+      <c r="K5" s="39" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
       <c r="A6" s="14" t="s">
@@ -1929,6 +2000,9 @@
       <c r="I6" s="12" t="s">
         <v>31</v>
       </c>
+      <c r="K6" s="39" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
       <c r="A7" s="15">
@@ -1953,6 +2027,9 @@
       <c r="I7" s="20" t="s">
         <v>37</v>
       </c>
+      <c r="K7" s="39" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1">
       <c r="A8" s="15">
@@ -1977,9 +2054,12 @@
       <c r="I8" s="20" t="s">
         <v>42</v>
       </c>
+      <c r="K8" s="39" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A9" s="35">
+      <c r="A9" s="37">
         <v>10012057</v>
       </c>
       <c r="B9" s="16"/>
@@ -1989,21 +2069,24 @@
       <c r="D9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="33" t="s">
         <v>47</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A10" s="35"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="16"/>
       <c r="C10" s="19" t="s">
         <v>48</v>
@@ -2011,10 +2094,13 @@
       <c r="D10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="K10" s="39" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="1:181" ht="121.95" customHeight="1">
       <c r="A11" s="15">
@@ -2039,6 +2125,9 @@
       <c r="I11" s="20" t="s">
         <v>53</v>
       </c>
+      <c r="K11" s="39" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="12" spans="1:181" ht="121.95" customHeight="1">
       <c r="A12" s="15">
@@ -2063,6 +2152,9 @@
       <c r="I12" s="20" t="s">
         <v>57</v>
       </c>
+      <c r="K12" s="39" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="1:181" ht="121.95" customHeight="1">
       <c r="A13" s="21">
@@ -2087,6 +2179,9 @@
       <c r="I13" s="24" t="s">
         <v>61</v>
       </c>
+      <c r="K13" s="39" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:181" ht="121.95" customHeight="1">
       <c r="A14" s="21">
@@ -2111,6 +2206,7 @@
       <c r="I14" s="24" t="s">
         <v>65</v>
       </c>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:181" ht="121.95" customHeight="1">
       <c r="A15" s="25" t="s">
@@ -2134,6 +2230,9 @@
       </c>
       <c r="I15" s="27" t="s">
         <v>71</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:181" ht="121.95" customHeight="1"/>

--- a/クリックポスト発送情報/20200723100110/英子日本发货表格7.22.xlsx
+++ b/クリックポスト発送情報/20200723100110/英子日本发货表格7.22.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
   <si>
     <t>序号</t>
   </si>
@@ -417,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -440,6 +440,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -452,7 +501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -552,6 +601,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -567,11 +622,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1520,8 +1584,8 @@
   <dimension ref="A1:FY257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1874,7 +1938,7 @@
       <c r="FY1" s="5"/>
     </row>
     <row r="2" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="13"/>
@@ -1884,24 +1948,24 @@
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="34" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A3" s="36"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
         <v>18</v>
@@ -1909,24 +1973,16 @@
       <c r="D3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="39" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="44"/>
+      <c r="K3" s="34" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A4" s="36"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
         <v>19</v>
@@ -1934,19 +1990,11 @@
       <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="39" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="44"/>
+      <c r="K4" s="34" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1973,7 +2021,7 @@
       <c r="I5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2000,7 +2048,7 @@
       <c r="I6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="34" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2027,7 +2075,7 @@
       <c r="I7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="34" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2054,12 +2102,12 @@
       <c r="I8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="34" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A9" s="37">
+      <c r="A9" s="39">
         <v>10012057</v>
       </c>
       <c r="B9" s="16"/>
@@ -2069,24 +2117,24 @@
       <c r="D9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A10" s="37"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="16"/>
       <c r="C10" s="19" t="s">
         <v>48</v>
@@ -2094,11 +2142,11 @@
       <c r="D10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="K10" s="39" t="s">
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="K10" s="34" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2125,7 +2173,7 @@
       <c r="I11" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="34" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2152,7 +2200,7 @@
       <c r="I12" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="34" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2179,7 +2227,7 @@
       <c r="I13" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="34" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2206,7 +2254,7 @@
       <c r="I14" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="38"/>
+      <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:181" ht="121.95" customHeight="1">
       <c r="A15" s="25" t="s">
@@ -2231,7 +2279,7 @@
       <c r="I15" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="34" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2478,13 +2526,17 @@
     <row r="256" ht="121.95" customHeight="1"/>
     <row r="257" ht="121.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.70902777777777803" right="0.70902777777777803" top="0.95902777777777803" bottom="0.95902777777777803" header="0.468055555555556" footer="0.468055555555556"/>
